--- a/image/player/wizardOfLegendPlayerSpritesFrame.xlsx
+++ b/image/player/wizardOfLegendPlayerSpritesFrame.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\WizardOfLegend\image\player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC19D1B7-68DE-4865-A23F-7D3482534067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817A504-3B96-45D7-A779-105BCDFC1722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{20E1D786-5607-40E7-ADE5-F419BEFF133C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>wizard sprites frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심에서 가로 32 세로 64가 충돌범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지형충돌범위는 중심에서 -16한 점을 중점으로 가로 32 세로 32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +697,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,6 +709,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2">
